--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H2">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I2">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J2">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N2">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P2">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q2">
-        <v>0.09720113915111112</v>
+        <v>0.4425461875769999</v>
       </c>
       <c r="R2">
-        <v>0.87481025236</v>
+        <v>3.982915688192999</v>
       </c>
       <c r="S2">
-        <v>0.01480043427121774</v>
+        <v>0.05621063433259817</v>
       </c>
       <c r="T2">
-        <v>0.01480043427121774</v>
+        <v>0.05621063433259819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H3">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I3">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J3">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.113523</v>
       </c>
       <c r="O3">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P3">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q3">
-        <v>2.454086785381</v>
+        <v>4.267447553690999</v>
       </c>
       <c r="R3">
-        <v>22.086781068429</v>
+        <v>38.407027983219</v>
       </c>
       <c r="S3">
-        <v>0.3736741202840144</v>
+        <v>0.5420359291476863</v>
       </c>
       <c r="T3">
-        <v>0.3736741202840145</v>
+        <v>0.5420359291476864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.364607666666667</v>
+        <v>4.111851</v>
       </c>
       <c r="H4">
-        <v>7.093823</v>
+        <v>12.335553</v>
       </c>
       <c r="I4">
-        <v>0.5706817983441447</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="J4">
-        <v>0.5706817983441448</v>
+        <v>0.7622709775015009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N4">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P4">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q4">
-        <v>1.196637296806111</v>
+        <v>1.291363813209</v>
       </c>
       <c r="R4">
-        <v>10.769735671255</v>
+        <v>11.622274318881</v>
       </c>
       <c r="S4">
-        <v>0.1822072437889125</v>
+        <v>0.1640244140212164</v>
       </c>
       <c r="T4">
-        <v>0.1822072437889126</v>
+        <v>0.1640244140212164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.323865</v>
       </c>
       <c r="I5">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J5">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N5">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O5">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P5">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q5">
-        <v>0.01813989242222222</v>
+        <v>0.04749453945166666</v>
       </c>
       <c r="R5">
-        <v>0.1632590318</v>
+        <v>0.427450855065</v>
       </c>
       <c r="S5">
-        <v>0.002762089907862893</v>
+        <v>0.006032586574815502</v>
       </c>
       <c r="T5">
-        <v>0.002762089907862893</v>
+        <v>0.006032586574815504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1.323865</v>
       </c>
       <c r="I6">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J6">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>3.113523</v>
       </c>
       <c r="O6">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P6">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q6">
         <v>0.457987125155</v>
@@ -827,10 +827,10 @@
         <v>4.121884126395</v>
       </c>
       <c r="S6">
-        <v>0.06973589406583681</v>
+        <v>0.05817188701155933</v>
       </c>
       <c r="T6">
-        <v>0.06973589406583686</v>
+        <v>0.05817188701155935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1.323865</v>
       </c>
       <c r="I7">
-        <v>0.1065019043983577</v>
+        <v>0.08180775256934363</v>
       </c>
       <c r="J7">
-        <v>0.1065019043983578</v>
+        <v>0.08180775256934364</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N7">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O7">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P7">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q7">
-        <v>0.2233191094472222</v>
+        <v>0.1385905726783334</v>
       </c>
       <c r="R7">
-        <v>2.009871985025</v>
+        <v>1.247315154105</v>
       </c>
       <c r="S7">
-        <v>0.034003920424658</v>
+        <v>0.01760327898296879</v>
       </c>
       <c r="T7">
-        <v>0.03400392042465802</v>
+        <v>0.0176032789829688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H8">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I8">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J8">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N8">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O8">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P8">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q8">
-        <v>0.002719301915555555</v>
+        <v>0.004807411084666666</v>
       </c>
       <c r="R8">
-        <v>0.02447371724</v>
+        <v>0.043266699762</v>
       </c>
       <c r="S8">
-        <v>0.0004140573826219034</v>
+        <v>0.0006106201661033617</v>
       </c>
       <c r="T8">
-        <v>0.0004140573826219035</v>
+        <v>0.0006106201661033618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H9">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I9">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J9">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.113523</v>
       </c>
       <c r="O9">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P9">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q9">
-        <v>0.068655603779</v>
+        <v>0.046357589894</v>
       </c>
       <c r="R9">
-        <v>0.6179004340109999</v>
+        <v>0.417218309046</v>
       </c>
       <c r="S9">
-        <v>0.01045391813260701</v>
+        <v>0.005888175307393861</v>
       </c>
       <c r="T9">
-        <v>0.01045391813260701</v>
+        <v>0.005888175307393862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06615233333333333</v>
+        <v>0.04466733333333334</v>
       </c>
       <c r="H10">
-        <v>0.198457</v>
+        <v>0.134002</v>
       </c>
       <c r="I10">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="J10">
-        <v>0.01596541070364794</v>
+        <v>0.008280604487464496</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N10">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O10">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P10">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q10">
-        <v>0.03347716006055555</v>
+        <v>0.01402817803933334</v>
       </c>
       <c r="R10">
-        <v>0.301294440545</v>
+        <v>0.126253602354</v>
       </c>
       <c r="S10">
-        <v>0.005097435188419026</v>
+        <v>0.001781809013967273</v>
       </c>
       <c r="T10">
-        <v>0.005097435188419028</v>
+        <v>0.001781809013967273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H11">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I11">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J11">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N11">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O11">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P11">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q11">
-        <v>0.03841491992000001</v>
+        <v>0.040114089678</v>
       </c>
       <c r="R11">
-        <v>0.34573427928</v>
+        <v>0.361026807102</v>
       </c>
       <c r="S11">
-        <v>0.005849288416529362</v>
+        <v>0.005095148234855786</v>
       </c>
       <c r="T11">
-        <v>0.005849288416529363</v>
+        <v>0.005095148234855787</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H12">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I12">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J12">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>3.113523</v>
       </c>
       <c r="O12">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P12">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q12">
-        <v>0.9698810956380001</v>
+        <v>0.386817870474</v>
       </c>
       <c r="R12">
-        <v>8.728929860741999</v>
+        <v>3.481360834266</v>
       </c>
       <c r="S12">
-        <v>0.1476799709576528</v>
+        <v>0.04913222276204823</v>
       </c>
       <c r="T12">
-        <v>0.1476799709576529</v>
+        <v>0.04913222276204823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9345180000000001</v>
+        <v>0.372714</v>
       </c>
       <c r="H13">
-        <v>2.803554</v>
+        <v>1.118142</v>
       </c>
       <c r="I13">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="J13">
-        <v>0.2255394923830099</v>
+        <v>0.06909517516770292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N13">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O13">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P13">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q13">
-        <v>0.47292373661</v>
+        <v>0.117054186126</v>
       </c>
       <c r="R13">
-        <v>4.25631362949</v>
+        <v>1.053487675134</v>
       </c>
       <c r="S13">
-        <v>0.07201023300882767</v>
+        <v>0.0148678041707989</v>
       </c>
       <c r="T13">
-        <v>0.07201023300882771</v>
+        <v>0.01486780417079891</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H14">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I14">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J14">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N14">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O14">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P14">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q14">
-        <v>0.01070225768888889</v>
+        <v>0.01334721890233333</v>
       </c>
       <c r="R14">
-        <v>0.09632031919999999</v>
+        <v>0.120124970121</v>
       </c>
       <c r="S14">
-        <v>0.001629590587737716</v>
+        <v>0.001695316019292703</v>
       </c>
       <c r="T14">
-        <v>0.001629590587737716</v>
+        <v>0.001695316019292703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H15">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I15">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J15">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.113523</v>
       </c>
       <c r="O15">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P15">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q15">
-        <v>0.27020536382</v>
+        <v>0.128706467827</v>
       </c>
       <c r="R15">
-        <v>2.43184827438</v>
+        <v>1.158358210443</v>
       </c>
       <c r="S15">
-        <v>0.04114310554253078</v>
+        <v>0.01634783532736914</v>
       </c>
       <c r="T15">
-        <v>0.04114310554253079</v>
+        <v>0.01634783532736914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2603533333333333</v>
+        <v>0.1240136666666667</v>
       </c>
       <c r="H16">
-        <v>0.78106</v>
+        <v>0.372041</v>
       </c>
       <c r="I16">
-        <v>0.06283448648418176</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="J16">
-        <v>0.06283448648418177</v>
+        <v>0.02299013726750928</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N16">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O16">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P16">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q16">
-        <v>0.1317548417888889</v>
+        <v>0.03894760813966668</v>
       </c>
       <c r="R16">
-        <v>1.1857935761</v>
+        <v>0.350528473257</v>
       </c>
       <c r="S16">
-        <v>0.02006179035391326</v>
+        <v>0.004946985920847437</v>
       </c>
       <c r="T16">
-        <v>0.02006179035391327</v>
+        <v>0.004946985920847438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H17">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I17">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J17">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.04110666666666667</v>
+        <v>0.107627</v>
       </c>
       <c r="N17">
-        <v>0.12332</v>
+        <v>0.322881</v>
       </c>
       <c r="O17">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569673</v>
       </c>
       <c r="P17">
-        <v>0.02593465275073039</v>
+        <v>0.07374101335569674</v>
       </c>
       <c r="Q17">
-        <v>0.003147071591111111</v>
+        <v>0.03225337235466667</v>
       </c>
       <c r="R17">
-        <v>0.02832364432</v>
+        <v>0.290280351192</v>
       </c>
       <c r="S17">
-        <v>0.0004791921847607708</v>
+        <v>0.004096708028031205</v>
       </c>
       <c r="T17">
-        <v>0.0004791921847607709</v>
+        <v>0.004096708028031205</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H18">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I18">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J18">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>3.113523</v>
       </c>
       <c r="O18">
-        <v>0.6547854187188803</v>
+        <v>0.7110803705584069</v>
       </c>
       <c r="P18">
-        <v>0.6547854187188804</v>
+        <v>0.711080370558407</v>
       </c>
       <c r="Q18">
-        <v>0.07945572317200002</v>
+        <v>0.311017423304</v>
       </c>
       <c r="R18">
-        <v>0.715101508548</v>
+        <v>2.799156809736</v>
       </c>
       <c r="S18">
-        <v>0.01209840973623832</v>
+        <v>0.0395043210023501</v>
       </c>
       <c r="T18">
-        <v>0.01209840973623832</v>
+        <v>0.0395043210023501</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.07655866666666668</v>
+        <v>0.2996773333333334</v>
       </c>
       <c r="H19">
-        <v>0.229676</v>
+        <v>0.8990320000000001</v>
       </c>
       <c r="I19">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="J19">
-        <v>0.01847690768665779</v>
+        <v>0.05555535300647887</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5060616666666666</v>
+        <v>0.314059</v>
       </c>
       <c r="N19">
-        <v>1.518185</v>
+        <v>0.942177</v>
       </c>
       <c r="O19">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858963</v>
       </c>
       <c r="P19">
-        <v>0.3192799285303893</v>
+        <v>0.2151786160858964</v>
       </c>
       <c r="Q19">
-        <v>0.03874340645111111</v>
+        <v>0.09411636362933334</v>
       </c>
       <c r="R19">
-        <v>0.34869065806</v>
+        <v>0.847047272664</v>
       </c>
       <c r="S19">
-        <v>0.005899305765658698</v>
+        <v>0.01195432397609756</v>
       </c>
       <c r="T19">
-        <v>0.005899305765658701</v>
+        <v>0.01195432397609756</v>
       </c>
     </row>
   </sheetData>
